--- a/Errors.xlsx
+++ b/Errors.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Abitech\ASCOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A465730-8D80-4CEF-81CA-00BCB45146DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B096520D-6B76-486D-BF23-49A1A3A5612B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Справочник "Ремонтные подразделения"</t>
   </si>
@@ -449,6 +449,12 @@
   <si>
     <t>Readings откуда взялся?</t>
   </si>
+  <si>
+    <t>Перевод</t>
+  </si>
+  <si>
+    <t>При &lt; и &lt;= заполнять поля Min, при &gt; и &gt;= заполнять поля Max.</t>
+  </si>
 </sst>
 </file>
 
@@ -501,7 +507,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -540,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -550,15 +562,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -942,948 +958,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="8">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="8">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="8">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="7">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="8">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="7">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="8">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="8">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="8">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="7">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
         <v>7</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+    <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="C41" s="13"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+    <row r="48" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
         <v>2</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>2</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>6</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>8</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>9</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>2</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>3</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="4">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="4">
         <v>2</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D73" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="4">
         <v>3</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="7">
         <v>2</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="7">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D81" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="7">
         <v>4</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D82" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="8">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="7">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="8">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="7">
         <v>6</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D84" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="8">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="7">
         <v>7</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D85" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="8">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="7">
         <v>8</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D86" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="8">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="7">
         <v>9</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D87" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="8">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="7">
         <v>10</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D88" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="8">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="7">
         <v>11</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D89" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="8">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="7">
         <v>12</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="8">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="7">
         <v>13</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="8">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="8">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="7">
         <v>2</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D94" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="8">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="7">
         <v>3</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="8">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="7">
         <v>4</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D96" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="8">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="7">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="8">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="7">
         <v>6</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="8">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="7">
         <v>7</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D99" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="8">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="7">
         <v>8</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D100" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="8">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="7">
         <v>9</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D101" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="8">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D102" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="8">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="7">
         <v>11</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D103" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="8">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="7">
         <v>12</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D104" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="8">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="7">
         <v>13</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D105" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="10" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="8">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="8">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="7">
         <v>2</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D108" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="8">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="7">
         <v>3</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="8">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="7">
         <v>4</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="8">
-        <v>5</v>
-      </c>
-      <c r="C110" t="s">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="7">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="8">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="7">
         <v>6</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D112" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="8">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="7">
         <v>7</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D113" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="8">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="7">
         <v>8</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="8">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="7">
         <v>9</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D115" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="8">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D116" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="8">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="7">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="8">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="7">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D119" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="8">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="7">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="8">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="7">
         <v>4</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D121" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="8">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="7">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="8">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="7">
         <v>6</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D123" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="D48:L48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A77" r:id="rId1" xr:uid="{832C3854-3BEB-4D66-B405-1252AC95933F}"/>
+    <hyperlink ref="A78" r:id="rId1" xr:uid="{832C3854-3BEB-4D66-B405-1252AC95933F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Errors.xlsx
+++ b/Errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Abitech\ASCOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F88CAEF-0F67-41E0-8B00-07601BFAF673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A28CF9-DDEA-49D6-903C-E4542B1C0B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Справочник "Ремонтные подразделения"</t>
   </si>
@@ -486,6 +486,28 @@
   <si>
     <t>Сделать ссылки в breadcrumbs подчеркнутыми</t>
   </si>
+  <si>
+    <t>Справочник "Маршруты документов" (DocWorkflow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выстроить все компоненты горизонтально: 
+Таблица видов маршрутов -&gt; 
+Форма детализации -&gt; 
+Справочник переходов между статусами документа -&gt; 
+Детализация по переходам </t>
+  </si>
+  <si>
+    <t>Если не помещается на экране - добавить полосу прокрутки</t>
+  </si>
+  <si>
+    <t>Как удалить пользователя из списка пользователей?</t>
+  </si>
+  <si>
+    <t>Как удалить Роль из списка ролей?</t>
+  </si>
+  <si>
+    <t>Если роли и пользователи отображаются неудобно, то детализацию переходов между статусами поместить на TabView, а детализацию, роли, пользователей - на отдельные закладки.</t>
+  </si>
 </sst>
 </file>
 
@@ -538,7 +560,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +597,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -584,12 +612,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -602,15 +639,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -994,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144:K144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,86 +1415,86 @@
       <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
     </row>
     <row r="49" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54">
@@ -1598,13 +1642,13 @@
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="12"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
@@ -1740,16 +1784,16 @@
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="12"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="8">
         <v>1</v>
       </c>
-      <c r="C97" s="13"/>
+      <c r="C97" s="12"/>
       <c r="D97" t="s">
         <v>73</v>
       </c>
@@ -1758,7 +1802,7 @@
       <c r="B98" s="8">
         <v>2</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="12"/>
       <c r="D98" t="s">
         <v>74</v>
       </c>
@@ -1775,7 +1819,7 @@
       <c r="B100" s="8">
         <v>4</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="12"/>
       <c r="D100" t="s">
         <v>76</v>
       </c>
@@ -1792,7 +1836,7 @@
       <c r="B102" s="8">
         <v>6</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="12"/>
       <c r="D102" t="s">
         <v>78</v>
       </c>
@@ -1825,7 +1869,7 @@
       <c r="B106" s="8">
         <v>10</v>
       </c>
-      <c r="C106" s="13"/>
+      <c r="C106" s="12"/>
       <c r="D106" t="s">
         <v>82</v>
       </c>
@@ -1834,7 +1878,7 @@
       <c r="B107" s="8">
         <v>11</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="12"/>
       <c r="D107" t="s">
         <v>83</v>
       </c>
@@ -1843,7 +1887,6 @@
       <c r="B108" s="8">
         <v>12</v>
       </c>
-      <c r="C108" s="14"/>
       <c r="D108" t="s">
         <v>84</v>
       </c>
@@ -1852,7 +1895,7 @@
       <c r="B109" s="8">
         <v>13</v>
       </c>
-      <c r="C109" s="13"/>
+      <c r="C109" s="12"/>
       <c r="D109" t="s">
         <v>85</v>
       </c>
@@ -1903,16 +1946,16 @@
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C117" s="12"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="8">
         <v>1</v>
       </c>
-      <c r="C118" s="13"/>
+      <c r="C118" s="12"/>
       <c r="D118" t="s">
         <v>91</v>
       </c>
@@ -1946,7 +1989,7 @@
       <c r="B122" s="8">
         <v>5</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="12"/>
       <c r="D122" t="s">
         <v>74</v>
       </c>
@@ -1981,7 +2024,7 @@
       <c r="B126" s="8">
         <v>9</v>
       </c>
-      <c r="C126" s="13"/>
+      <c r="C126" s="12"/>
       <c r="D126" t="s">
         <v>97</v>
       </c>
@@ -1994,16 +2037,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="14"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="12" t="s">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C129" s="12"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="11"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="8">
         <v>1</v>
       </c>
@@ -2011,7 +2051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="8">
         <v>2</v>
       </c>
@@ -2019,7 +2059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="8">
         <v>3</v>
       </c>
@@ -2027,7 +2067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="8">
         <v>4</v>
       </c>
@@ -2035,7 +2075,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="8">
         <v>5</v>
       </c>
@@ -2043,7 +2083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="8">
         <v>6</v>
       </c>
@@ -2051,15 +2091,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="14"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>1</v>
       </c>
@@ -2067,14 +2104,71 @@
         <v>106</v>
       </c>
     </row>
+    <row r="141" spans="2:13" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="17">
+        <v>1</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="17">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="17">
+        <v>3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="17">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="17">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D144:K144"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A78" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Errors.xlsx
+++ b/Errors.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Abitech\ASCOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A28CF9-DDEA-49D6-903C-E4542B1C0B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF1D51-EE80-40AC-8265-219C2D2DFCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Справочник "Ремонтные подразделения"</t>
   </si>
@@ -508,12 +508,21 @@
   <si>
     <t>Если роли и пользователи отображаются неудобно, то детализацию переходов между статусами поместить на TabView, а детализацию, роли, пользователей - на отдельные закладки.</t>
   </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>Справочник составов</t>
+  </si>
+  <si>
+    <t>Не обновляется список составов после добавления новой записи</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -554,6 +563,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -626,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -644,17 +661,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1038,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144:K144"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,17 +1433,17 @@
       <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
@@ -2104,7 +2122,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="2:13" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:13" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="142" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
@@ -2112,52 +2130,72 @@
       </c>
     </row>
     <row r="144" spans="2:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="17">
-        <v>1</v>
-      </c>
-      <c r="D144" s="16" t="s">
+      <c r="B144" s="15">
+        <v>1</v>
+      </c>
+      <c r="D144" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="16"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="17">
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="15">
         <v>2</v>
       </c>
       <c r="D145" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="17">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="15">
         <v>3</v>
       </c>
       <c r="D146" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="17">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="15">
         <v>4</v>
       </c>
       <c r="D147" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="17">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="15">
         <v>5</v>
       </c>
       <c r="D148" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A155" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
